--- a/Data/Processed/Angiosperms/missing_powo_ipni/Capparaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Capparaceae.xlsx
@@ -1312,7 +1312,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6240,7 +6240,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Annuaire Conserv. Jard. Bot. Genève 17: 376. 1914 </t>
+          <t>Annuaire Conserv. Jard. Bot. Genève 17: 376. 1914</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
